--- a/input/test.xlsx
+++ b/input/test.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\Multi_translate\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloudin/PycharmProjects/translate_API/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5595"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="9340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>AU</t>
   </si>
@@ -71,14 +74,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -170,12 +173,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -205,12 +208,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -390,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -435,6 +438,166 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/input/test.xlsx
+++ b/input/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>AU</t>
   </si>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -481,126 +481,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/test.xlsx
+++ b/input/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="9340"/>
+    <workbookView xWindow="1620" yWindow="3260" windowWidth="20500" windowHeight="9340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>AU</t>
   </si>
@@ -63,7 +63,48 @@
   </si>
   <si>
     <t>Understanding the microscopic mechanisms of electrochemical reaction and material degradation is crucial for the rational design of high-performance lithium ion batteries (LIBs). A novel nanobattery assembly and testing platform inside a transmission electron microscope (TEM) has been designed, which allows a direct study of the structural evolution of individual nanowire or nanoparticle electrodes with near-atomic resolution in real time. In this review, recent progresses in the study of several important anode materials are summarized. The consistency between in situ and ex situ results is shown, thereby validating the new in situ testing paradigm. Comparisons between a variety of nanostructures lead to the conclusion that electrochemical reaction and mechanical degradation are material specific, size dependent, and geometrically and compositionally sensitive. For example, a highly anisotropic lithiation in Si is observed, in contrast to the nearly isotropic response in Ge. The Ge nanowires can develop a spongy network, a unique mechanism for mitigating the large volume changes during cycling. The Si nanoparticles show a critical size of similar to 150 nm below which fracture is averted during lithiation, and above which surface cracking, rather than central cracking, is observed. In carbonaceous nanomaterials, the lithiated multi-walled carbon nanotubes (MWCNTs) are drastically embrittled, while few-layer graphene nanoribbons remain mechanically robust after lithiation. This distinct contrast manifests a strong geometrical embrittlement effect as compared to a relatively weak chemical embrittlement effect. In oxide nanowires, discrete cracks in ZnO nanowires are generated near the lithiation reaction front, leading to leapfrog cracking, while a mobile dislocation cloud at the reaction front is observed in SnO2 nanowires. This contrast is corroborated by ab initio calculations that indicate a strong chemical embrittlement of ZnO, but not of SnO2, after a small amount of lithium insertion. In metallic nanowires such as Al, delithiation causes pulverization, and the product nanoparticles are held in place by the surface Li-Al-O glass tube, suggesting possible strategies for improving electrode cyclability by coatings. In addition, a new in situ chemical lithiation method is introduced for fast screening of battery materials by conventional TEM. Evidently, in situ nanobattery experiments inside TEM are a powerful approach for advancing the fundamental understanding of electrochemical reactions and materials degradation and therefore pave the way toward rational design of high-performance LIBs.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kronawitter, CX; Ma, ZX; Liu, DF; Mao, SS; Antoun, BR</t>
+  </si>
+  <si>
+    <t>Kronawitter, Coleman X.; Ma, Zhixun; Liu, Dongfang; Mao, Samuel S.; Antoun, Bonnie R.</t>
+  </si>
+  <si>
+    <t>Engineering Impurity Distributions in Photoelectrodes for Solar Water Oxidation</t>
+  </si>
+  <si>
+    <t>oxide; nanostructures; photoelectrochemistry; solar energy; zno nanowire arrays; hydrogen-production; energy-conversion; thin-films; cells; titanium-dioxide; spectroscopy; photoanodes; generation; electrodes</t>
+  </si>
+  <si>
+    <t>Lin, J; Peng, ZW; Wang, G; Zakhidov, D; Larios, E; Yacaman, MJ; Tour, JM</t>
+  </si>
+  <si>
+    <t>Lin, Jian; Peng, Zhiwei; Wang, Gunuk; Zakhidov, Dante; Larios, Eduardo; Yacaman, Miguel Jose; Tour, James M.</t>
+  </si>
+  <si>
+    <t>Enhanced Electrocatalysis for Hydrogen Evolution Reactions from WS2 Nanoribbons</t>
+  </si>
+  <si>
+    <t>active edge sites; graphene nanoribbons; mos2 nanoparticles; nanosheets; oxidation; sulfides; catalysts; stack; design; layer</t>
+  </si>
+  <si>
+    <t>A facile route is developed to boost the electrocatalytic activity of WS2 by chemically unzipping WS2 nanotubes to form WS2 nanoribbons (NRs) with increased edge content. Analysis indicates that the hydrogen evolution reaction activity is strongly associated with the number of exposed active edge sites. The formation of WS2 NRs is an effective route for controlling the electrochemical properties of the 2D dichalcogenides, enabling their application in electrocatalysis.</t>
+  </si>
+  <si>
+    <t>Miller, JE; McDaniel, AH; Allendorf, MD</t>
+  </si>
+  <si>
+    <t>Miller, James E.; McDaniel, Anthony H.; Allendorf, Mark D.</t>
+  </si>
+  <si>
+    <t>Considerations in the Design of Materials for Solar-Driven Fuel Production Using Metal-Oxide Thermochemical Cycles</t>
+  </si>
+  <si>
+    <t>carbon-dioxide; ceria; ferrite; gas splitting; hydrogen; yttria-stabilized zirconia; nonstoichiometric ceria; feo/fe3o4 redox reactions; oxygen storage capacity; hydrogen-production; solid-solution; thermodynamic analysis; h-2 generation; thermal-energy; iron-oxide</t>
+  </si>
+  <si>
+    <t>With demand for energy increasing worldwide and an ever-stronger case building for anthropogenic climate change, the need for carbon-neutral fuels is becoming an imperative. Extensive transportation infrastructure based on liquid hydrocarbon fuels motivates development of processes using solar energy to convert CO2 and H2O to fuel precursors such as synthesis gas. Here, perspectives concerning the use of solar-driven thermochemical cycles using metal oxides to produce fuel precursors are given and, in particular, the important relationship between reactor design and material selection is discussed. Considering both a detailed thermodynamic analysis and factors such as reaction kinetics, volatility, and phase stability, an integrated analytical approach that facilitates material design is presented. These concepts are illustrated using three oxide materials currently receiving considerable attention: metal-substituted ferrites, ceria, and doped cerias. Although none of these materials is ideal, the tradeoffs made in selecting any one of them are clearly indicated, providing a starting point for assessing the feasibility of alternative materials developed in the future.</t>
   </si>
 </sst>
 </file>
@@ -393,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -443,42 +484,59 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
